--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_DLNhatBinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_DLNhatBinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -660,6 +660,72 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -669,36 +735,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,42 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1088,42 +1088,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1166,57 +1166,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1241,48 +1241,72 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="55">
+        <v>44203</v>
+      </c>
+      <c r="C6" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="57">
+        <v>867857039936211</v>
+      </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="G6" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H6" s="56"/>
-      <c r="I6" s="61"/>
+      <c r="I6" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="J6" s="58"/>
       <c r="K6" s="61"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="L6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1312,7 +1336,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1340,7 +1364,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1392,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1396,7 +1420,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +1448,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1476,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1482,7 +1506,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1510,7 +1534,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1538,7 +1562,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1566,7 +1590,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1705,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,7 +2190,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2221,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2700,6 +2724,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2713,11 +2742,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2728,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2766,7 @@
     <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
     <col min="7" max="7" width="17" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="92" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="23" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
@@ -2760,46 +2784,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="81"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
@@ -2824,7 +2848,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="82"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -2841,58 +2865,58 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="91" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2914,27 +2938,27 @@
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2957,7 +2981,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="56"/>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="66" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="58"/>
@@ -2984,7 +3008,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="63" t="s">
+      <c r="V6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3002,7 +3026,7 @@
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="84"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="58"/>
       <c r="K7" s="1"/>
       <c r="L7" s="58"/>
@@ -3015,7 +3039,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="64"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3031,7 +3055,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="84"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="58"/>
       <c r="K8" s="61"/>
       <c r="L8" s="58"/>
@@ -3044,7 +3068,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="64"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3060,7 +3084,7 @@
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="84"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="58"/>
       <c r="K9" s="1"/>
       <c r="L9" s="61"/>
@@ -3073,7 +3097,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="64"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3089,7 +3113,7 @@
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="84"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="58"/>
       <c r="K10" s="61"/>
       <c r="L10" s="58"/>
@@ -3102,7 +3126,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3118,7 +3142,7 @@
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="84"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="58"/>
       <c r="K11" s="61"/>
       <c r="L11" s="1"/>
@@ -3131,7 +3155,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3147,7 +3171,7 @@
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="84"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="58"/>
       <c r="K12" s="1"/>
       <c r="L12" s="61"/>
@@ -3160,7 +3184,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="63" t="s">
+      <c r="V12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3178,7 +3202,7 @@
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="58"/>
       <c r="K13" s="59"/>
       <c r="L13" s="1"/>
@@ -3191,7 +3215,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="64"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3207,7 +3231,7 @@
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="85"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="1"/>
       <c r="K14" s="58"/>
       <c r="L14" s="1"/>
@@ -3220,7 +3244,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="64"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3236,7 +3260,7 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="85"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3249,7 +3273,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="64"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3265,7 +3289,7 @@
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="85"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3278,7 +3302,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="65"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3294,7 +3318,7 @@
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="86"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3321,7 +3345,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="87"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="1"/>
@@ -3348,7 +3372,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="86"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3379,7 +3403,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="86"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3411,7 +3435,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="86"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3443,7 +3467,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="88"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3475,7 +3499,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="88"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3502,7 +3526,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="88"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3529,7 +3553,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="88"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3560,7 +3584,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="88"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3592,7 +3616,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="88"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3624,7 +3648,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="86"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3656,7 +3680,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="86"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3688,7 +3712,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="86"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3720,7 +3744,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="86"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3752,7 +3776,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="86"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3784,7 +3808,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="86"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3816,7 +3840,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="86"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3848,7 +3872,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="86"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3880,7 +3904,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="86"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3912,7 +3936,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="86"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3944,7 +3968,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="86"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3971,7 +3995,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="86"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3998,7 +4022,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="86"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4030,7 +4054,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="86"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4062,7 +4086,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="86"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4089,7 +4113,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="86"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4116,7 +4140,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="86"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4147,7 +4171,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="86"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4179,7 +4203,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="86"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4211,7 +4235,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="86"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4243,7 +4267,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="86"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4275,7 +4299,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="86"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4307,7 +4331,7 @@
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="89"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
@@ -4339,7 +4363,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="86"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4371,7 +4395,7 @@
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
-      <c r="I52" s="90"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
       <c r="L52" s="40"/>
@@ -4403,7 +4427,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="90"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="40"/>
@@ -4435,7 +4459,7 @@
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
-      <c r="I54" s="91"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
       <c r="L54" s="48"/>
@@ -4467,7 +4491,7 @@
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
-      <c r="I55" s="90"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="39"/>
       <c r="K55" s="39"/>
       <c r="L55" s="40"/>
@@ -4499,7 +4523,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
-      <c r="I56" s="90"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="39"/>
       <c r="K56" s="39"/>
       <c r="L56" s="40"/>
@@ -4512,10 +4536,10 @@
       <c r="S56" s="39"/>
       <c r="T56" s="51"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="76" t="s">
+      <c r="V56" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="76">
+      <c r="W56" s="88">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -4531,7 +4555,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
-      <c r="I57" s="90"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="39"/>
       <c r="K57" s="39"/>
       <c r="L57" s="40"/>
@@ -4544,8 +4568,8 @@
       <c r="S57" s="39"/>
       <c r="T57" s="51"/>
       <c r="U57" s="53"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -4558,7 +4582,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
-      <c r="I58" s="90"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="39"/>
       <c r="K58" s="39"/>
       <c r="L58" s="40"/>
@@ -4571,8 +4595,8 @@
       <c r="S58" s="39"/>
       <c r="T58" s="51"/>
       <c r="U58" s="53"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4585,7 +4609,7 @@
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
-      <c r="I59" s="90"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="39"/>
       <c r="K59" s="39"/>
       <c r="L59" s="40"/>
@@ -4612,7 +4636,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
-      <c r="I60" s="90"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="39"/>
       <c r="K60" s="39"/>
       <c r="L60" s="40"/>
@@ -4639,7 +4663,7 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
-      <c r="I61" s="90"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="39"/>
       <c r="K61" s="39"/>
       <c r="L61" s="40"/>
@@ -4671,7 +4695,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
-      <c r="I62" s="90"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="39"/>
       <c r="K62" s="39"/>
       <c r="L62" s="40"/>
@@ -4703,7 +4727,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
-      <c r="I63" s="90"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="39"/>
       <c r="K63" s="39"/>
       <c r="L63" s="40"/>
@@ -4730,7 +4754,7 @@
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
-      <c r="I64" s="90"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="39"/>
       <c r="K64" s="39"/>
       <c r="L64" s="40"/>
@@ -4757,7 +4781,7 @@
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
-      <c r="I65" s="90"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="39"/>
       <c r="K65" s="39"/>
       <c r="L65" s="40"/>
@@ -4784,7 +4808,7 @@
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
-      <c r="I66" s="90"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="39"/>
       <c r="K66" s="39"/>
       <c r="L66" s="40"/>
@@ -4811,7 +4835,7 @@
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
-      <c r="I67" s="90"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="39"/>
       <c r="K67" s="39"/>
       <c r="L67" s="40"/>
@@ -4841,7 +4865,7 @@
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
-      <c r="I68" s="90"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="39"/>
       <c r="K68" s="39"/>
       <c r="L68" s="40"/>
@@ -4868,7 +4892,7 @@
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
-      <c r="I69" s="90"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="39"/>
       <c r="K69" s="39"/>
       <c r="L69" s="40"/>
@@ -4895,7 +4919,7 @@
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
-      <c r="I70" s="90"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="39"/>
       <c r="K70" s="39"/>
       <c r="L70" s="40"/>
@@ -4922,7 +4946,7 @@
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
-      <c r="I71" s="90"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="39"/>
       <c r="K71" s="39"/>
       <c r="L71" s="40"/>
@@ -4949,7 +4973,7 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
-      <c r="I72" s="90"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="39"/>
       <c r="K72" s="39"/>
       <c r="L72" s="40"/>
@@ -4976,7 +5000,7 @@
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
-      <c r="I73" s="90"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="39"/>
       <c r="K73" s="39"/>
       <c r="L73" s="40"/>
@@ -5003,7 +5027,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
-      <c r="I74" s="90"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="39"/>
       <c r="K74" s="39"/>
       <c r="L74" s="40"/>
@@ -5030,7 +5054,7 @@
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
       <c r="H75" s="39"/>
-      <c r="I75" s="90"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="39"/>
       <c r="K75" s="39"/>
       <c r="L75" s="40"/>
@@ -5057,7 +5081,7 @@
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
-      <c r="I76" s="90"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="40"/>
@@ -5084,7 +5108,7 @@
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
-      <c r="I77" s="90"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="40"/>
@@ -5111,7 +5135,7 @@
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
-      <c r="I78" s="90"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="40"/>
@@ -5138,7 +5162,7 @@
       <c r="F79" s="39"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
-      <c r="I79" s="90"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="39"/>
       <c r="K79" s="39"/>
       <c r="L79" s="40"/>
@@ -5165,7 +5189,7 @@
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
-      <c r="I80" s="90"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="39"/>
       <c r="K80" s="39"/>
       <c r="L80" s="40"/>
@@ -5192,7 +5216,7 @@
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
-      <c r="I81" s="90"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="39"/>
       <c r="K81" s="39"/>
       <c r="L81" s="40"/>
@@ -5219,7 +5243,7 @@
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
-      <c r="I82" s="90"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="39"/>
       <c r="K82" s="39"/>
       <c r="L82" s="40"/>
@@ -5246,7 +5270,7 @@
       <c r="F83" s="39"/>
       <c r="G83" s="39"/>
       <c r="H83" s="39"/>
-      <c r="I83" s="90"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="39"/>
       <c r="K83" s="39"/>
       <c r="L83" s="40"/>
@@ -5273,7 +5297,7 @@
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
-      <c r="I84" s="90"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="39"/>
       <c r="K84" s="39"/>
       <c r="L84" s="40"/>
@@ -5300,7 +5324,7 @@
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
-      <c r="I85" s="90"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="39"/>
       <c r="K85" s="39"/>
       <c r="L85" s="40"/>
@@ -5327,7 +5351,7 @@
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
       <c r="H86" s="39"/>
-      <c r="I86" s="90"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="39"/>
       <c r="K86" s="39"/>
       <c r="L86" s="40"/>
@@ -5354,7 +5378,7 @@
       <c r="F87" s="39"/>
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
-      <c r="I87" s="90"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="39"/>
       <c r="K87" s="39"/>
       <c r="L87" s="40"/>
@@ -5381,7 +5405,7 @@
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
-      <c r="I88" s="90"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="39"/>
       <c r="K88" s="39"/>
       <c r="L88" s="40"/>
@@ -5408,7 +5432,7 @@
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
-      <c r="I89" s="90"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="39"/>
       <c r="K89" s="39"/>
       <c r="L89" s="40"/>
@@ -5435,7 +5459,7 @@
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
-      <c r="I90" s="90"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="39"/>
       <c r="K90" s="39"/>
       <c r="L90" s="40"/>
@@ -5462,7 +5486,7 @@
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
-      <c r="I91" s="90"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="39"/>
       <c r="K91" s="39"/>
       <c r="L91" s="40"/>
@@ -5489,7 +5513,7 @@
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
-      <c r="I92" s="90"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="39"/>
       <c r="K92" s="39"/>
       <c r="L92" s="40"/>
@@ -5516,7 +5540,7 @@
       <c r="F93" s="39"/>
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
-      <c r="I93" s="90"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="39"/>
       <c r="K93" s="39"/>
       <c r="L93" s="40"/>
@@ -5543,7 +5567,7 @@
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
-      <c r="I94" s="90"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="39"/>
       <c r="K94" s="39"/>
       <c r="L94" s="40"/>
@@ -5570,7 +5594,7 @@
       <c r="F95" s="39"/>
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
-      <c r="I95" s="90"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="39"/>
       <c r="K95" s="39"/>
       <c r="L95" s="40"/>
@@ -5597,7 +5621,7 @@
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
-      <c r="I96" s="90"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="39"/>
       <c r="K96" s="39"/>
       <c r="L96" s="40"/>
@@ -5624,7 +5648,7 @@
       <c r="F97" s="39"/>
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
-      <c r="I97" s="90"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="39"/>
       <c r="K97" s="39"/>
       <c r="L97" s="40"/>
@@ -5651,7 +5675,7 @@
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
       <c r="H98" s="39"/>
-      <c r="I98" s="90"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="39"/>
       <c r="K98" s="39"/>
       <c r="L98" s="40"/>
@@ -5678,7 +5702,7 @@
       <c r="F99" s="39"/>
       <c r="G99" s="39"/>
       <c r="H99" s="39"/>
-      <c r="I99" s="90"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="39"/>
       <c r="K99" s="39"/>
       <c r="L99" s="40"/>
@@ -5705,7 +5729,7 @@
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
       <c r="H100" s="39"/>
-      <c r="I100" s="90"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="39"/>
       <c r="K100" s="39"/>
       <c r="L100" s="40"/>
@@ -5732,7 +5756,7 @@
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
-      <c r="I101" s="90"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="39"/>
       <c r="K101" s="39"/>
       <c r="L101" s="40"/>
@@ -5759,7 +5783,7 @@
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
-      <c r="I102" s="90"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="39"/>
       <c r="K102" s="39"/>
       <c r="L102" s="40"/>
@@ -5786,7 +5810,7 @@
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
-      <c r="I103" s="90"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="39"/>
       <c r="K103" s="39"/>
       <c r="L103" s="40"/>
@@ -5813,7 +5837,7 @@
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
-      <c r="I104" s="90"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="39"/>
       <c r="K104" s="39"/>
       <c r="L104" s="40"/>
@@ -5840,7 +5864,7 @@
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
-      <c r="I105" s="90"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="39"/>
       <c r="K105" s="39"/>
       <c r="L105" s="40"/>
@@ -5859,6 +5883,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -5869,16 +5903,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
